--- a/01_Input/00_CO Validation/Mozambique - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Mozambique - Energy Projects.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27004"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="77" documentId="11_ED003CA4D908688494407A0C808C278304CB7319" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D63B4D74-B381-4DD6-B38D-919D87483D67}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="11_ED003CA4D908688494407A0C808C278304CB7319" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C55714B-CB9B-475D-8F8E-8211C78EDB4D}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Projects (2)" sheetId="3" r:id="rId1"/>
-    <sheet name="Projects" sheetId="1" r:id="rId2"/>
-    <sheet name="Beneficiary Categories" sheetId="2" r:id="rId3"/>
+    <sheet name="Projects (3)" sheetId="4" r:id="rId1"/>
+    <sheet name="Projects (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Projects" sheetId="1" r:id="rId3"/>
+    <sheet name="Beneficiary Categories" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="68">
   <si>
     <t>Project ID</t>
   </si>
@@ -71,6 +72,9 @@
     <t>Comments</t>
   </si>
   <si>
+    <t>Tag</t>
+  </si>
+  <si>
     <t>SEH Taxonomy</t>
   </si>
   <si>
@@ -98,25 +102,25 @@
     <t xml:space="preserve">LPG: 300 beneficiaries </t>
   </si>
   <si>
+    <t>Activities were implemented in Cabo Delgado Province and include: (i) production of energy saving and low emission cooking stoves; (ii) Promotion of LPG gas.</t>
+  </si>
+  <si>
+    <t>UNDP AccLabs</t>
+  </si>
+  <si>
+    <t>Non-VF</t>
+  </si>
+  <si>
+    <t>Accelerating just energy transition</t>
+  </si>
+  <si>
+    <t>60 beneficiaries</t>
+  </si>
+  <si>
+    <t>10-day field study to collect concrete information on user preferences for improved cookers</t>
+  </si>
+  <si>
     <t>LPG: 0   Stoves: 0</t>
-  </si>
-  <si>
-    <t>Activities were implemented in Cabo Delgado Province and include: (i) production of energy saving and low emission cooking stoves; (ii) Promotion of LPG gas.</t>
-  </si>
-  <si>
-    <t>UNDP AccLabs</t>
-  </si>
-  <si>
-    <t>Non-VF</t>
-  </si>
-  <si>
-    <t>Accelerating just energy transition</t>
-  </si>
-  <si>
-    <t>60 beneficiaries</t>
-  </si>
-  <si>
-    <t>10-day field study to collect concrete information on user preferences for improved cookers</t>
   </si>
   <si>
     <t>This was a three month pilot phase. Targets are the same as the number of beneficiaries listed under the indicators.</t>
@@ -357,7 +361,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -380,7 +384,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -392,6 +395,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -697,11 +715,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFED34C1-57AD-46CD-BAF4-42B739849A9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986EBAA0-09CE-4BD6-8724-F4C273F02C1A}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -715,133 +733,363 @@
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="32.7109375" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" customWidth="1"/>
+    <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:19" ht="30.75">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="N1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="O1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="P1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="Q1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="R1" s="15" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="15" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" spans="1:19" ht="123" customHeight="1">
-      <c r="A2">
+      <c r="A2" s="16">
         <v>129587</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="16">
+        <v>566623</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="18">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>300</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+    </row>
+    <row r="3" spans="1:19" ht="60.75">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="16">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18">
+        <v>60</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S3" xr:uid="{276C1509-1F15-468C-A448-AFB03EB52E92}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R3" xr:uid="{8EB97F5C-1024-4933-875D-32F3880F01E5}">
+      <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q3" xr:uid="{3D8541BF-3E85-4227-9632-0290C98B8DA1}">
+      <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P3" xr:uid="{4CE46562-AF68-4C97-81A5-8C869B8F7C10}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3" xr:uid="{56F87E02-0CC6-4E30-90BA-C64015389D0A}">
+      <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{D91F00FC-61D0-48BE-B594-91866D93BB72}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DF99D7F6-02C9-42F1-8E92-36C8BA1A717D}">
+          <x14:formula1>
+            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFED34C1-57AD-46CD-BAF4-42B739849A9A}">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="32.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" customWidth="1"/>
+    <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="45.75">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="16"/>
+      <c r="O1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:19" ht="123" customHeight="1">
+      <c r="A2" s="16">
+        <v>129587</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D2">
+      <c r="C2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="16">
         <v>566623</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="9">
+      <c r="G2" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="18">
         <v>300</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K2" s="16"/>
+      <c r="L2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="O2" t="s">
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="P2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="45.75">
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="P2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+    </row>
+    <row r="3" spans="1:19" ht="60.75">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="16">
         <v>0</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="18">
         <v>60</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L3" t="s">
+      <c r="K3" s="16"/>
+      <c r="L3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="O3" t="s">
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="P3" t="s">
-        <v>20</v>
-      </c>
+      <c r="P3" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
     </row>
   </sheetData>
   <dataValidations count="5">
@@ -880,7 +1128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -938,25 +1186,25 @@
         <v>129587</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <v>566623</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>23</v>
@@ -967,7 +1215,7 @@
     </row>
     <row r="3" spans="1:10" ht="91.5">
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
@@ -976,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>28</v>
@@ -1005,7 +1253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -1018,160 +1266,160 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="11" t="s">
-        <v>33</v>
+      <c r="A2" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="11"/>
+      <c r="A3" s="10"/>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="11"/>
+      <c r="A4" s="10"/>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="12" t="s">
-        <v>39</v>
+      <c r="A5" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="12"/>
+      <c r="A6" s="11"/>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="12"/>
+      <c r="A7" s="11"/>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="12"/>
+      <c r="A8" s="11"/>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="12"/>
+      <c r="A9" s="11"/>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="13" t="s">
-        <v>50</v>
+      <c r="A10" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="13"/>
+      <c r="A11" s="12"/>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="14" t="s">
-        <v>55</v>
+      <c r="A12" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="14"/>
+      <c r="A13" s="13"/>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="14"/>
+      <c r="A14" s="13"/>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1186,26 +1434,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
-      <UserInfo>
-        <DisplayName>Goetz Schroth</DisplayName>
-        <AccountId>416</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd739a91710fed73edeed3c312976475">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="829e6ebd84bdd7e43dc34d34aecb984e" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -1229,6 +1468,7 @@
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1304,6 +1544,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="fb9e4d32-074f-4c04-81ef-e811753dfd59" elementFormDefault="qualified">
@@ -1447,22 +1692,31 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
+      <UserInfo>
+        <DisplayName>Goetz Schroth</DisplayName>
+        <AccountId>416</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F83C9D80-FC31-4245-B6C1-58C395C84D8B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8D5872F-09A3-43A5-ADCA-98D11F739303}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39E13853-6D52-4B59-998D-5CE6EFD8D95C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCEEDC54-347B-456E-BC3E-B19E9D5638B3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8D5872F-09A3-43A5-ADCA-98D11F739303}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F83C9D80-FC31-4245-B6C1-58C395C84D8B}"/>
 </file>
--- a/01_Input/00_CO Validation/Mozambique - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Mozambique - Energy Projects.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27004"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="92" documentId="11_ED003CA4D908688494407A0C808C278304CB7319" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C55714B-CB9B-475D-8F8E-8211C78EDB4D}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="11_ED003CA4D908688494407A0C808C278304CB7319" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B192C89-83BD-4F92-9CD9-E4C813DCCD84}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,6 +15,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="70">
   <si>
     <t>Project ID</t>
   </si>
@@ -102,6 +105,9 @@
     <t xml:space="preserve">LPG: 300 beneficiaries </t>
   </si>
   <si>
+    <t>300 HH</t>
+  </si>
+  <si>
     <t>Activities were implemented in Cabo Delgado Province and include: (i) production of energy saving and low emission cooking stoves; (ii) Promotion of LPG gas.</t>
   </si>
   <si>
@@ -115,6 +121,9 @@
   </si>
   <si>
     <t>60 beneficiaries</t>
+  </si>
+  <si>
+    <t>60 HH</t>
   </si>
   <si>
     <t>10-day field study to collect concrete information on user preferences for improved cookers</t>
@@ -315,7 +324,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -353,6 +362,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -361,7 +431,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -384,6 +454,45 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -395,21 +504,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -719,7 +813,7 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -741,149 +835,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="30.75">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="123" customHeight="1">
-      <c r="A2" s="16">
+      <c r="A2" s="20">
         <v>129587</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="18">
         <v>566623</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="14">
         <v>0</v>
       </c>
-      <c r="H2" s="18">
-        <v>300</v>
-      </c>
-      <c r="I2" s="18" t="s">
+      <c r="H2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="I2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16" t="s">
+      <c r="J2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-    </row>
-    <row r="3" spans="1:19" ht="60.75">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+    </row>
+    <row r="3" spans="1:19" ht="45.75">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="16">
-        <v>0</v>
-      </c>
-      <c r="H3" s="18">
-        <v>60</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
     </row>
   </sheetData>
   <dataValidations count="5">
@@ -949,147 +1043,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="45.75">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="15" t="s">
+      <c r="N1" s="12"/>
+      <c r="O1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="123" customHeight="1">
-      <c r="A2" s="16">
+      <c r="A2" s="12">
         <v>129587</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="12">
         <v>566623</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="18">
+      <c r="G2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="14">
         <v>300</v>
       </c>
-      <c r="I2" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="16" t="s">
+      <c r="I2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16" t="s">
+      <c r="J2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
     </row>
     <row r="3" spans="1:19" ht="60.75">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0</v>
+      </c>
+      <c r="H3" s="14">
+        <v>60</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="16">
-        <v>0</v>
-      </c>
-      <c r="H3" s="18">
-        <v>60</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
     </row>
   </sheetData>
   <dataValidations count="5">
@@ -1201,16 +1295,16 @@
         <v>22</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="91.5">
@@ -1218,19 +1312,19 @@
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1266,160 +1360,160 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="10" t="s">
-        <v>34</v>
+      <c r="A2" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="10"/>
+      <c r="A3" s="23"/>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="10"/>
+      <c r="A4" s="23"/>
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="11" t="s">
-        <v>40</v>
+      <c r="A5" s="24" t="s">
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="11"/>
+      <c r="A6" s="24"/>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="24"/>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="11"/>
+      <c r="A8" s="24"/>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="11"/>
+      <c r="A9" s="24"/>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>51</v>
+      <c r="A10" s="25" t="s">
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="12"/>
+      <c r="A11" s="25"/>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="13" t="s">
-        <v>56</v>
+      <c r="A12" s="26" t="s">
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="13"/>
+      <c r="A13" s="26"/>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="13"/>
+      <c r="A14" s="26"/>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/01_Input/00_CO Validation/Mozambique - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Mozambique - Energy Projects.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27226"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="99" documentId="11_ED003CA4D908688494407A0C808C278304CB7319" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B192C89-83BD-4F92-9CD9-E4C813DCCD84}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="11_ED003CA4D908688494407A0C808C278304CB7319" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04CC9BD4-EFD3-485A-AF90-2B1966B81B1B}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="79">
   <si>
     <t>Project ID</t>
   </si>
@@ -69,66 +69,81 @@
     <t>Gender (% female)</t>
   </si>
   <si>
+    <t>VF or Non-VF</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>SEH Taxonomy</t>
+  </si>
+  <si>
+    <t>RISE Taxonomy</t>
+  </si>
+  <si>
+    <t>Flagship</t>
+  </si>
+  <si>
+    <t>Indirect Category</t>
+  </si>
+  <si>
+    <t>Indirect Taxonomy</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Policy or Regulatory Framework</t>
+  </si>
+  <si>
+    <t>Policy Population</t>
+  </si>
+  <si>
+    <t>Accelerator Lab – Mozambique</t>
+  </si>
+  <si>
+    <t>http://open.undp.org/projects/00129587</t>
+  </si>
+  <si>
+    <t>Clean Cooking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPG: 300 beneficiaries </t>
+  </si>
+  <si>
+    <t>300 HH</t>
+  </si>
+  <si>
+    <t>Activities were implemented in Cabo Delgado Province and include: (i) production of energy saving and low emission cooking stoves; (ii) Promotion of LPG gas.</t>
+  </si>
+  <si>
+    <t>UNDP AccLabs</t>
+  </si>
+  <si>
+    <t>Non-VF</t>
+  </si>
+  <si>
+    <t>Close the gap on energy access</t>
+  </si>
+  <si>
+    <t>Accelerating just energy transition</t>
+  </si>
+  <si>
+    <t>60 beneficiaries</t>
+  </si>
+  <si>
+    <t>60 HH</t>
+  </si>
+  <si>
+    <t>10-day field study to collect concrete information on user preferences for improved cookers</t>
+  </si>
+  <si>
     <t>Category</t>
   </si>
   <si>
     <t>Comments</t>
   </si>
   <si>
-    <t>Tag</t>
-  </si>
-  <si>
-    <t>SEH Taxonomy</t>
-  </si>
-  <si>
-    <t>RISE Taxonomy</t>
-  </si>
-  <si>
-    <t>Flagship</t>
-  </si>
-  <si>
-    <t>Indirect Category</t>
-  </si>
-  <si>
-    <t>Indirect Taxonomy</t>
-  </si>
-  <si>
-    <t>Accelerator Lab – Mozambique</t>
-  </si>
-  <si>
-    <t>http://open.undp.org/projects/00129587</t>
-  </si>
-  <si>
-    <t>Clean Cooking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPG: 300 beneficiaries </t>
-  </si>
-  <si>
-    <t>300 HH</t>
-  </si>
-  <si>
-    <t>Activities were implemented in Cabo Delgado Province and include: (i) production of energy saving and low emission cooking stoves; (ii) Promotion of LPG gas.</t>
-  </si>
-  <si>
-    <t>UNDP AccLabs</t>
-  </si>
-  <si>
-    <t>Non-VF</t>
-  </si>
-  <si>
-    <t>Accelerating just energy transition</t>
-  </si>
-  <si>
-    <t>60 beneficiaries</t>
-  </si>
-  <si>
-    <t>60 HH</t>
-  </si>
-  <si>
-    <t>10-day field study to collect concrete information on user preferences for improved cookers</t>
-  </si>
-  <si>
     <t>LPG: 0   Stoves: 0</t>
   </si>
   <si>
@@ -138,55 +153,67 @@
     <t>Targets are the same as the number of beneficiaries listed under the indicators.</t>
   </si>
   <si>
-    <t>Tier</t>
-  </si>
-  <si>
-    <t>Explanation</t>
-  </si>
-  <si>
-    <t>Access to Energy</t>
-  </si>
-  <si>
     <t>Electricity Access</t>
   </si>
   <si>
-    <t>Access to electricity (direct access to electricity, lighting,  heating, cooling etc.)</t>
+    <t>Number of people, disaggregated by sex, who gain access to clean electricity (direct access to electricity, lighting, cooling, etc.) </t>
   </si>
   <si>
     <t>Energy (MW added)</t>
   </si>
   <si>
-    <t>Access to energy through installed renewable energy capacity (solar PV, hydro, wind, etc. )</t>
-  </si>
-  <si>
-    <t>Access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.)</t>
-  </si>
-  <si>
-    <t>Productive Use of Energy</t>
-  </si>
-  <si>
-    <t>Agricultural Services</t>
-  </si>
-  <si>
-    <t>Access to agricultural energy services (irrigation with solar pumps, heating systems for processing food, etc. )</t>
+    <t>Number of MW installed capacity</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.).</t>
+  </si>
+  <si>
+    <t>Clean Heating</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean heating (direct access to clean electric heaters, clean fuels, etc.).</t>
+  </si>
+  <si>
+    <t>Agriculture and Food System</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean, affordable, and sustainable electricity for agricultural and food system activities (direct access to power machines for crop, processing, milling, grinding, de-husking, pressing, canning, sealing and packaging electricity, heating, cooling, solar water pumping for irrigation etc.) </t>
   </si>
   <si>
     <t>Health Services</t>
   </si>
   <si>
-    <t>Access to health services powered by solar PV and energy efficient systems such as hospitals</t>
+    <t>Number of people who gain access to health care facilities (direct access to electricity and heating systems for clinics, hospitals, health centers etc.) </t>
   </si>
   <si>
     <t>Water Services</t>
   </si>
   <si>
-    <t>Access to solar water pumps</t>
+    <t>Number of people who gain access to water services (powering water pumps, water distributions, waste management, etc.).  </t>
   </si>
   <si>
     <t>Education Services</t>
   </si>
   <si>
-    <t>Access to education services trough clean energy systems</t>
+    <t>Number of people who gain access to education services through clean energy systems (including students, teachers, etc.) </t>
+  </si>
+  <si>
+    <t>Transportation and E-mobility Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from transport and e-mobility interventions (e.g., electric vehicles, charging stations, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Efficiency Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from energy efficiency interventions (e.g., building efficiency, industries, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Infrastructure Services</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from energy infrastructure interventions (streetlight, transmission, and distribution lines, etc.) </t>
   </si>
   <si>
     <t>Other Energy Services</t>
@@ -195,7 +222,10 @@
     <t>Access to other service (electric vehicles, industries efficiency etc.)</t>
   </si>
   <si>
-    <t>Market Development</t>
+    <t xml:space="preserve">Financing support </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support for the development of market ecosystem </t>
   </si>
   <si>
     <t>Medium Enterprises</t>
@@ -210,13 +240,10 @@
     <t>Support for the development of small enterprises in the energy transition market</t>
   </si>
   <si>
-    <t>Capacity Building</t>
-  </si>
-  <si>
-    <t>Capacity Training</t>
-  </si>
-  <si>
-    <t>Individuals who participate in trainings for energy activities</t>
+    <t>Capacity Building Training</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from training for enterprises on the energy business and energy finance. </t>
   </si>
   <si>
     <t>Entrepreneurship Training</t>
@@ -225,19 +252,19 @@
     <t>Training for enterprises on the energy business is assumed to result in at least 100 direct beneficiaries</t>
   </si>
   <si>
+    <t>Market Intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume of investment (US dollars) leverage removing barriers to private and public investment in clean, reliable, affordable, and sustainable energy solutions and energy efficiency for social infrastructure, productive use of electricity and other services </t>
+  </si>
+  <si>
     <t>Campaign Participant</t>
   </si>
   <si>
     <t>Individuals who participate in advocacy and campaign on energy</t>
   </si>
   <si>
-    <t>Policy and Regulator Frameworks</t>
-  </si>
-  <si>
-    <t>Policy or Regulatory Framework</t>
-  </si>
-  <si>
-    <t>Policies and regulatory framework can have far-reaching impacts on the energy access situation in countries</t>
+    <t xml:space="preserve">Number of people supported by policy and regulatory framework development on clean, affordable, and sustainable energy </t>
   </si>
   <si>
     <t>Other</t>
@@ -250,12 +277,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -273,8 +306,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,44 +333,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAFFFFD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFFB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF42FFFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00E1DA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00DAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00BDB7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -423,28 +433,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -454,56 +471,81 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -810,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986EBAA0-09CE-4BD6-8724-F4C273F02C1A}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -828,173 +870,221 @@
     <col min="9" max="9" width="32.7109375" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" customWidth="1"/>
     <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.140625" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30.75">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:27" ht="30.75">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="27" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="123" customHeight="1">
-      <c r="A2" s="20">
+      <c r="T1" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="123" customHeight="1">
+      <c r="A2" s="18">
         <v>129587</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="18">
+      <c r="B2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="16">
         <v>566623</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="14">
+      <c r="E2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="12">
         <v>0</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="21"/>
+      <c r="N2" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="30"/>
+      <c r="W2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12" t="s">
+    </row>
+    <row r="3" spans="1:27" ht="60.75">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-    </row>
-    <row r="3" spans="1:19" ht="45.75">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="12" t="s">
+      <c r="K3" s="10"/>
+      <c r="L3" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="12">
-        <v>0</v>
-      </c>
-      <c r="H3" s="14" t="s">
+      <c r="M3" s="21"/>
+      <c r="N3" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="30"/>
+      <c r="W3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
+      <c r="AA3" s="10" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S3" xr:uid="{276C1509-1F15-468C-A448-AFB03EB52E92}">
-      <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R3" xr:uid="{8EB97F5C-1024-4933-875D-32F3880F01E5}">
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q3" xr:uid="{8EB97F5C-1024-4933-875D-32F3880F01E5}">
       <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q3" xr:uid="{3D8541BF-3E85-4227-9632-0290C98B8DA1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P3" xr:uid="{3D8541BF-3E85-4227-9632-0290C98B8DA1}">
       <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P3" xr:uid="{4CE46562-AF68-4C97-81A5-8C869B8F7C10}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA3" xr:uid="{4CE46562-AF68-4C97-81A5-8C869B8F7C10}">
       <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3" xr:uid="{56F87E02-0CC6-4E30-90BA-C64015389D0A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z3 N2:N3" xr:uid="{56F87E02-0CC6-4E30-90BA-C64015389D0A}">
       <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3" xr:uid="{DCFB1E23-EC99-46A9-B587-E6DF4168B6E9}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy, Overall"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L3" xr:uid="{034EBC96-3CAD-44DD-8D09-ED47D21A2675}">
+      <formula1>"Non-VF, VF"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M3" xr:uid="{F045EF2D-9F66-4AD3-AACB-4B4FB1EC90A6}">
+      <formula1>"Finance, Gender, Efficiency, Just, Health"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T3" xr:uid="{BA7C0484-F030-4193-9375-FD413D170D23}">
+      <formula1>"National, Regional, City, Community"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R3" xr:uid="{FBBC4A33-C80A-44EF-98D6-47F0E090EFC3}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable Energy, Infrastructure,  Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid, Research &amp; Innovation, Grant &amp; Investment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S3" xr:uid="{F1FC8FF1-CF10-4364-807B-4D97B693444B}">
+      <formula1>"Solar, Wind, Bioenergy, Hydro, Geothermal, Waste, Some Sources, Other, Unknown"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -1003,12 +1093,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DF99D7F6-02C9-42F1-8E92-36C8BA1A717D}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E4</xm:sqref>
+          <xm:sqref>E4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4E840BB6-6DFF-4CA7-829B-BA3346E3E41F}">
+          <x14:formula1>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$22</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1043,147 +1139,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="45.75">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="11" t="s">
+      <c r="L1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="10"/>
+      <c r="O1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="R1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="S1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="11" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="2" spans="1:19" ht="123" customHeight="1">
-      <c r="A2" s="12">
+      <c r="A2" s="10">
         <v>129587</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="12">
+      <c r="B2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="10">
         <v>566623</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="14" t="s">
+      <c r="E2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="12">
+        <v>300</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+    </row>
+    <row r="3" spans="1:19" ht="60.75">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="14">
-        <v>300</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12" t="s">
+      <c r="G3" s="10">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12">
+        <v>60</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-    </row>
-    <row r="3" spans="1:19" ht="60.75">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="12" t="s">
+      <c r="K3" s="10"/>
+      <c r="L3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="12">
-        <v>0</v>
-      </c>
-      <c r="H3" s="14">
-        <v>60</v>
-      </c>
-      <c r="I3" s="12" t="s">
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
+      <c r="P3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="5">
@@ -1212,7 +1308,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3AB110C3-D5A2-4239-92D4-C4FBAF445A90}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E4</xm:sqref>
         </x14:dataValidation>
@@ -1271,7 +1367,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1280,51 +1376,51 @@
         <v>129587</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>566623</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>25</v>
+      <c r="G2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="91.5">
       <c r="E3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1337,7 +1433,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E4</xm:sqref>
         </x14:dataValidation>
@@ -1349,191 +1445,214 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="52.7109375" customWidth="1"/>
+    <col min="1" max="2" width="52.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="23"/>
-      <c r="B3" t="s">
+      <c r="B1" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45.75">
+      <c r="A2" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B2" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="23"/>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="31" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="30.75">
+      <c r="A4" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="30.75">
+      <c r="A5" s="31" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="24"/>
-      <c r="B6" t="s">
+      <c r="B5" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="91.5">
+      <c r="A6" s="31" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="24"/>
-      <c r="B7" t="s">
+      <c r="B6" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="45.75">
+      <c r="A7" s="31" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="24"/>
-      <c r="B8" t="s">
+      <c r="B7" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="45.75">
+      <c r="A8" s="31" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="24"/>
-      <c r="B9" t="s">
+      <c r="B8" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="45.75">
+      <c r="A9" s="31" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="25" t="s">
+      <c r="B9" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="30.75">
+      <c r="A10" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B10" s="32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="25"/>
-      <c r="B11" t="s">
+    <row r="11" spans="1:2" ht="30.75">
+      <c r="A11" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B11" s="32" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="26" t="s">
+    <row r="12" spans="1:2" ht="45.75">
+      <c r="A12" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="30.75">
+      <c r="A13" s="31" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="26"/>
-      <c r="B13" t="s">
+      <c r="B13" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="31" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="26"/>
-      <c r="B14" t="s">
+      <c r="B14" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="30.75">
+      <c r="A15" s="31" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="4" t="s">
+      <c r="B15" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="16" spans="1:2" ht="30.75">
+      <c r="A16" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B16" s="32" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="5" t="s">
+    <row r="17" spans="1:2" ht="30.75">
+      <c r="A17" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B17" s="23" t="s">
         <v>69</v>
       </c>
     </row>
+    <row r="18" spans="1:2" ht="30.75">
+      <c r="A18" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="76.5">
+      <c r="A19" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30.75">
+      <c r="A20" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45.75">
+      <c r="A21" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30.75">
+      <c r="A22" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
+      <UserInfo>
+        <DisplayName>Goetz Schroth</DisplayName>
+        <AccountId>416</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1786,25 +1905,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
-      <UserInfo>
-        <DisplayName>Goetz Schroth</DisplayName>
-        <AccountId>416</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8D5872F-09A3-43A5-ADCA-98D11F739303}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F83C9D80-FC31-4245-B6C1-58C395C84D8B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1812,5 +1922,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F83C9D80-FC31-4245-B6C1-58C395C84D8B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8D5872F-09A3-43A5-ADCA-98D11F739303}"/>
 </file>
--- a/01_Input/00_CO Validation/Mozambique - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Mozambique - Energy Projects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29130"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="121" documentId="11_ED003CA4D908688494407A0C808C278304CB7319" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04CC9BD4-EFD3-485A-AF90-2B1966B81B1B}"/>
+  <xr:revisionPtr revIDLastSave="186" documentId="11_ED003CA4D908688494407A0C808C278304CB7319" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09A57B59-A336-49E3-AC96-B45B0B4D67A9}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects (3)" sheetId="4" r:id="rId1"/>
-    <sheet name="Projects (2)" sheetId="3" r:id="rId2"/>
-    <sheet name="Projects" sheetId="1" r:id="rId3"/>
+    <sheet name="Projects (2)" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="Projects" sheetId="1" state="hidden" r:id="rId3"/>
     <sheet name="Beneficiary Categories" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="102">
   <si>
     <t>Project ID</t>
   </si>
@@ -99,6 +99,9 @@
     <t>Policy Population</t>
   </si>
   <si>
+    <t>Project Document</t>
+  </si>
+  <si>
     <t>Accelerator Lab – Mozambique</t>
   </si>
   <si>
@@ -126,25 +129,129 @@
     <t>Close the gap on energy access</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>60 beneficiaries</t>
+  </si>
+  <si>
+    <t>60 HH</t>
+  </si>
+  <si>
+    <t>10-day field study to collect concrete information on user preferences for improved cookers</t>
+  </si>
+  <si>
+    <t>Moz Recovery Facility</t>
+  </si>
+  <si>
+    <t>https://open.undp.org/projects/00121665</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>3,519,265 (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Estimates, could be higher as the costs are integrated within the main contracts for livelihood and infrastrucutre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Access - disaster affected communities -  </t>
+  </si>
+  <si>
+    <t>Resilient rehabilitation and reconstruction of Community Infrastructure;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contribute to building resilient and sustainable villages in selected disaster-affected communities, including resettlement areas in Cabo Delgado, Zambezia, and Sofala provinces, by integrating renewable energy (RE) technologies to enhance access to services, living conditions and livelihoods of vulnerable populations impacted by climate change-induced disasters, the COVID-19 pandemic, and conflicts. Approximately 675,294 people (410,280 of whom are female) have directly benefited from green energy access initiatives. These initiatives include providing solar energy to schools, clinics, markets, and government offices; establishing solar-powered small businesses, irrigation systems, and micro-processing plants for agricultural products; introducing technology for improved productivity; and producing and distributing improved cooking stoves and fire briquettes as sustainable alternatives to charcoal.. </t>
+  </si>
+  <si>
+    <t>United Nations Development Programme</t>
+  </si>
+  <si>
+    <t>CPD Output 2.1:  Resilient and inclusive economic recovery of communities vulnerable to disasters strengthened</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The local government adopted the improved cooking stoves guideline for the instituations that requires collective cooking of meals such as schools, police stations, etc
+</t>
+  </si>
+  <si>
+    <t>Number of families supported with resilient socioeconomic support</t>
+  </si>
+  <si>
+    <t>The local government adopted the improved cooking stoves guideline for the instituations that requires collective cooking of meals such as schools, police stations, etc</t>
+  </si>
+  <si>
+    <t>Health System Strengthening_NFM3</t>
+  </si>
+  <si>
+    <t>https://open.undp.org/projects/00135528</t>
+  </si>
+  <si>
+    <t>17,683,598 USD (budget for the entire project, not only energy component)
+USD 2,879,461.00  (considering only the solar componetn approved so far)</t>
+  </si>
+  <si>
+    <t>Energy Access</t>
+  </si>
+  <si>
+    <t>Number of heath facilities quipped with Solar solution</t>
+  </si>
+  <si>
+    <t>100 Clinics</t>
+  </si>
+  <si>
+    <t>Strengthened Laboratory capacity for decentralized testing &amp; National Health Institute capability for research and data management including provision of Renewable Energy system to ensure reliable power access to the targeted facilities</t>
+  </si>
+  <si>
+    <t>Government of Mozambique</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>55</t>
+    </r>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>LPG: 0   Stoves: 0</t>
+  </si>
+  <si>
     <t>Accelerating just energy transition</t>
-  </si>
-  <si>
-    <t>60 beneficiaries</t>
-  </si>
-  <si>
-    <t>60 HH</t>
-  </si>
-  <si>
-    <t>10-day field study to collect concrete information on user preferences for improved cookers</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>LPG: 0   Stoves: 0</t>
   </si>
   <si>
     <t>This was a three month pilot phase. Targets are the same as the number of beneficiaries listed under the indicators.</t>
@@ -277,7 +384,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,6 +426,31 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -334,7 +466,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -446,6 +578,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -454,7 +597,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -538,6 +681,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -549,8 +701,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -852,22 +1004,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986EBAA0-09CE-4BD6-8724-F4C273F02C1A}">
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="29.5703125" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="32.7109375" customWidth="1"/>
+    <col min="9" max="9" width="52.140625" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" customWidth="1"/>
     <col min="11" max="11" width="11.85546875" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -881,7 +1033,7 @@
     <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="30.75">
+    <row r="1" spans="1:22" ht="30.75">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -945,45 +1097,48 @@
       <c r="U1" s="27" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" ht="123" customHeight="1">
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="123" customHeight="1">
       <c r="A2" s="18">
         <v>129587</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="16">
         <v>566623</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" s="12">
         <v>0</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M2" s="21"/>
       <c r="N2" s="29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O2" s="21"/>
       <c r="P2" s="21"/>
@@ -992,48 +1147,40 @@
       <c r="S2" s="30"/>
       <c r="T2" s="21"/>
       <c r="U2" s="30"/>
-      <c r="W2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA2" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="60.75">
+      <c r="V2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="45.75">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="17"/>
       <c r="E3" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3" s="10">
         <v>0</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3" s="10"/>
       <c r="L3" s="28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M3" s="21"/>
       <c r="N3" s="29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O3" s="21"/>
       <c r="P3" s="21"/>
@@ -1042,36 +1189,191 @@
       <c r="S3" s="30"/>
       <c r="T3" s="21"/>
       <c r="U3" s="30"/>
-      <c r="W3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10" t="s">
+    </row>
+    <row r="4" spans="1:22" ht="259.5">
+      <c r="A4" s="18">
+        <v>121665</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12">
+        <v>182675</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="10">
+        <v>57</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="21"/>
+      <c r="N4" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="AA3" s="10" t="s">
-        <v>23</v>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="V4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="99.75" customHeight="1">
+      <c r="A5" s="18">
+        <v>121665</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12">
+        <v>215000</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="10">
+        <v>61</v>
+      </c>
+      <c r="L5" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="21"/>
+      <c r="N5" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="V5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="76.5">
+      <c r="A6" s="18">
+        <v>135528</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="21"/>
+      <c r="N6" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="18"/>
+      <c r="V6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="H7" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="10">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q3" xr:uid="{8EB97F5C-1024-4933-875D-32F3880F01E5}">
       <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P3" xr:uid="{3D8541BF-3E85-4227-9632-0290C98B8DA1}">
       <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA3" xr:uid="{4CE46562-AF68-4C97-81A5-8C869B8F7C10}">
-      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z3 N2:N3" xr:uid="{56F87E02-0CC6-4E30-90BA-C64015389D0A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3" xr:uid="{56F87E02-0CC6-4E30-90BA-C64015389D0A}">
       <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3" xr:uid="{DCFB1E23-EC99-46A9-B587-E6DF4168B6E9}">
       <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy, Overall"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L3" xr:uid="{034EBC96-3CAD-44DD-8D09-ED47D21A2675}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L5" xr:uid="{034EBC96-3CAD-44DD-8D09-ED47D21A2675}">
       <formula1>"Non-VF, VF"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M3" xr:uid="{F045EF2D-9F66-4AD3-AACB-4B4FB1EC90A6}">
@@ -1089,17 +1391,14 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{D91F00FC-61D0-48BE-B594-91866D93BB72}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{4B13F609-9437-4E94-896E-BBE3BA5D87FF}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{310ECE04-53E9-4C2F-A09A-04408059A5EC}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{93597C3E-D4BA-441A-A48E-8A6E1E62ED98}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DF99D7F6-02C9-42F1-8E92-36C8BA1A717D}">
-          <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
-          </x14:formula1>
-          <xm:sqref>E4</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4E840BB6-6DFF-4CA7-829B-BA3346E3E41F}">
           <x14:formula1>
             <xm:f>'Beneficiary Categories'!$A$2:$A$22</xm:f>
@@ -1173,10 +1472,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="N1" s="10"/>
       <c r="O1" s="9" t="s">
@@ -1200,43 +1499,43 @@
         <v>129587</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10">
         <v>566623</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H2" s="12">
         <v>300</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
@@ -1248,10 +1547,10 @@
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3" s="10">
         <v>0</v>
@@ -1260,22 +1559,22 @@
         <v>60</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3" s="10"/>
       <c r="L3" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
@@ -1376,51 +1675,51 @@
         <v>129587</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>566623</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="91.5">
       <c r="E3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1447,9 +1746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1465,171 +1762,171 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="45.75">
-      <c r="A2" s="31" t="s">
-        <v>39</v>
+      <c r="A2" s="34" t="s">
+        <v>62</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="31" t="s">
-        <v>41</v>
+      <c r="A3" s="34" t="s">
+        <v>64</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30.75">
-      <c r="A4" s="31" t="s">
-        <v>23</v>
+      <c r="A4" s="34" t="s">
+        <v>24</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30.75">
-      <c r="A5" s="31" t="s">
-        <v>44</v>
+      <c r="A5" s="34" t="s">
+        <v>67</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="91.5">
-      <c r="A6" s="31" t="s">
-        <v>46</v>
+      <c r="A6" s="34" t="s">
+        <v>69</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45.75">
-      <c r="A7" s="31" t="s">
-        <v>48</v>
+      <c r="A7" s="34" t="s">
+        <v>71</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45.75">
-      <c r="A8" s="31" t="s">
-        <v>50</v>
+      <c r="A8" s="34" t="s">
+        <v>73</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45.75">
-      <c r="A9" s="31" t="s">
-        <v>52</v>
+      <c r="A9" s="34" t="s">
+        <v>75</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30.75">
-      <c r="A10" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>55</v>
+      <c r="A10" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30.75">
-      <c r="A11" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>57</v>
+      <c r="A11" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45.75">
-      <c r="A12" s="31" t="s">
-        <v>58</v>
+      <c r="A12" s="34" t="s">
+        <v>81</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30.75">
-      <c r="A13" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>61</v>
+      <c r="A13" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>63</v>
+      <c r="A14" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30.75">
-      <c r="A15" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>65</v>
+      <c r="A15" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30.75">
-      <c r="A16" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>67</v>
+      <c r="A16" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30.75">
-      <c r="A17" s="31" t="s">
-        <v>68</v>
+      <c r="A17" s="34" t="s">
+        <v>91</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30.75">
-      <c r="A18" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>71</v>
+      <c r="A18" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="76.5">
-      <c r="A19" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>73</v>
+      <c r="A19" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30.75">
-      <c r="A20" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>75</v>
+      <c r="A20" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45.75">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="33" t="s">
-        <v>76</v>
+      <c r="B21" s="36" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30.75">
-      <c r="A22" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>78</v>
+      <c r="A22" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1656,8 +1953,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd25160c21e587dbb66203dfb8c7aa52">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05ccd5be12d50c438f9536854e894bcb" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -1682,6 +1979,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1761,6 +2059,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1918,7 +2221,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCEEDC54-347B-456E-BC3E-B19E9D5638B3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B06241EA-C119-4827-9CF8-5617466F3CC7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
